--- a/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
+++ b/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t xml:space="preserve">Planning van de uren </t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Groepsvergadering</t>
+  </si>
+  <si>
+    <t>Code samenvoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity diagram en commenten </t>
+  </si>
+  <si>
+    <t>Bitmap</t>
   </si>
 </sst>
 </file>
@@ -405,45 +414,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -732,7 +741,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,11 +758,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="9"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -762,22 +771,22 @@
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="59"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4"/>
     </row>
@@ -834,19 +843,27 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L4" s="18"/>
       <c r="M4" s="19"/>
       <c r="N4" s="28" t="s">
@@ -875,13 +892,24 @@
       <c r="B5" s="22">
         <v>42433</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.5</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>2.5</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
@@ -911,13 +939,24 @@
       <c r="B6" s="22">
         <v>42433</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="56"/>
+      <c r="J6" s="45">
+        <v>3</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="15"/>
       <c r="M6" s="19"/>
@@ -932,16 +971,27 @@
       <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="47">
         <v>42433</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="19">
+        <v>4</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
       <c r="K7" s="16"/>
       <c r="L7" s="17"/>
       <c r="M7" s="19"/>
@@ -953,20 +1003,28 @@
       <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57">
-        <v>3</v>
-      </c>
-      <c r="B8" s="59">
+      <c r="A8" s="46">
+        <v>3</v>
+      </c>
+      <c r="B8" s="48">
         <v>42433</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>6.5</v>
+      </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10">
+        <v>5</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <v>6.5</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="38"/>
       <c r="M8" s="19"/>
@@ -981,7 +1039,9 @@
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="22">
+        <v>42434</v>
+      </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
@@ -1004,7 +1064,9 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="22">
+        <v>42434</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="19"/>
       <c r="F10" s="2"/>
@@ -1026,7 +1088,9 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="22">
+        <v>42434</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="19"/>
       <c r="F11" s="2"/>
@@ -1048,7 +1112,9 @@
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="22">
+        <v>42434</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="19"/>
       <c r="F12" s="2"/>
@@ -1070,7 +1136,9 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="22">
+        <v>42434</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="19"/>
       <c r="F13" s="2"/>
@@ -1092,7 +1160,9 @@
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="22">
+        <v>42434</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="19"/>
       <c r="F14" s="2"/>
@@ -1114,7 +1184,9 @@
       <c r="A15" s="38">
         <v>3</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="37">
+        <v>42434</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>

--- a/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
+++ b/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">Planning van de uren </t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>Bitmap</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urenverdeling bijwerken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agenda's maken </t>
+  </si>
+  <si>
+    <t>Code documenteren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity diagram en use-case </t>
+  </si>
+  <si>
+    <t>Paper bijwerken</t>
   </si>
 </sst>
 </file>
@@ -414,9 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -452,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +759,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,11 +776,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="9"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -771,22 +789,22 @@
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="58"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4"/>
     </row>
@@ -835,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22">
-        <v>42433</v>
+        <v>42464</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -890,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22">
-        <v>42433</v>
+        <v>42464</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -898,19 +916,27 @@
       <c r="D5" s="2">
         <v>2.5</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>3.5</v>
+      </c>
       <c r="F5" s="19">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
       <c r="J5" s="2">
         <v>2.5</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
       <c r="N5" s="26">
@@ -937,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="22">
-        <v>42433</v>
+        <v>42464</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -945,34 +971,54 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
       <c r="F6" s="19">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="45">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="1"/>
+      <c r="N6" s="26">
+        <v>42465</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="47">
-        <v>42433</v>
+      <c r="B7" s="46">
+        <v>42464</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -980,19 +1026,27 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="19">
         <v>4</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="19"/>
       <c r="N7" s="26"/>
@@ -1003,29 +1057,39 @@
       <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
-        <v>3</v>
-      </c>
-      <c r="B8" s="48">
-        <v>42433</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="A8" s="45">
+        <v>3</v>
+      </c>
+      <c r="B8" s="47">
+        <v>42464</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="10">
         <v>6.5</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
       <c r="F8" s="11">
         <v>5</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12">
+        <v>4.5</v>
+      </c>
       <c r="H8" s="10">
         <v>5</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12">
+        <v>4.5</v>
+      </c>
       <c r="J8" s="10">
         <v>6.5</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>5.5</v>
+      </c>
       <c r="L8" s="38"/>
       <c r="M8" s="19"/>
       <c r="N8" s="43"/>
@@ -1040,16 +1104,35 @@
         <v>3</v>
       </c>
       <c r="B9" s="22">
-        <v>42434</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="21"/>
+        <v>42465</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
       <c r="L9" s="18"/>
       <c r="M9" s="35"/>
       <c r="N9" s="44"/>
@@ -1065,15 +1148,26 @@
         <v>3</v>
       </c>
       <c r="B10" s="22">
-        <v>42434</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>42465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="19">
+        <v>1.5</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="15"/>
       <c r="M10" s="19"/>
@@ -1089,15 +1183,26 @@
         <v>3</v>
       </c>
       <c r="B11" s="22">
-        <v>42434</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>42465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="15"/>
       <c r="M11" s="19"/>
@@ -1113,15 +1218,26 @@
         <v>3</v>
       </c>
       <c r="B12" s="22">
-        <v>42434</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>42465</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="19">
+        <v>3</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="15"/>
       <c r="M12" s="19"/>
@@ -1137,15 +1253,26 @@
         <v>3</v>
       </c>
       <c r="B13" s="22">
-        <v>42434</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>42465</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="19"/>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="15"/>
       <c r="M13" s="4"/>
@@ -1161,15 +1288,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="22">
-        <v>42434</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>42465</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="15"/>
       <c r="M14" s="4"/>
@@ -1185,16 +1323,26 @@
         <v>3</v>
       </c>
       <c r="B15" s="37">
-        <v>42434</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
+        <v>42465</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3</v>
+      </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>5.5</v>
+      </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11">
+        <v>1.5</v>
+      </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="4"/>

--- a/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
+++ b/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t xml:space="preserve">Planning van de uren </t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>Paper bijwerken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning bijwerken </t>
+  </si>
+  <si>
+    <t>Paper uitbreiden</t>
+  </si>
+  <si>
+    <t>Activity diagram aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github organiseren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellingscontrolen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitmap </t>
   </si>
 </sst>
 </file>
@@ -435,6 +453,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,9 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,11 +794,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="9"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -789,22 +807,22 @@
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="59"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4"/>
     </row>
@@ -986,7 +1004,7 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="48">
         <v>3</v>
       </c>
       <c r="K6" s="1">
@@ -1156,19 +1174,27 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="19">
         <v>1.5</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
       <c r="J10" s="19">
         <v>0</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
@@ -1191,19 +1217,27 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="19">
+        <v>4</v>
+      </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="19">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="19">
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
@@ -1226,19 +1260,27 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="19">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="19">
         <v>3</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -1261,19 +1303,27 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
       <c r="H13" s="19">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="19">
         <v>0</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1296,19 +1346,27 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
       <c r="H14" s="19">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
       <c r="J14" s="19">
         <v>0</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1331,19 +1389,27 @@
       <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>6</v>
+      </c>
       <c r="F15" s="11">
         <v>5.5</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12">
+        <v>5.5</v>
+      </c>
       <c r="H15" s="11">
         <v>1.5</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12">
+        <v>3</v>
+      </c>
       <c r="J15" s="11">
         <v>3</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12">
+        <v>6</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1357,185 +1423,280 @@
       <c r="A16" s="36">
         <v>3</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="41"/>
+      <c r="B16" s="39">
+        <v>42466</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>1</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41">
+        <v>0</v>
+      </c>
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>3</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="34">
+        <v>42466</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="35">
+        <v>2</v>
+      </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
       <c r="G17" s="36"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
       <c r="I17" s="36"/>
-      <c r="J17" s="19"/>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
       <c r="K17" s="36"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="1"/>
+      <c r="B18" s="34">
+        <v>42466</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="35">
+        <v>4</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="19">
+        <v>4</v>
+      </c>
+      <c r="K18" s="36"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38">
-        <v>3</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="38"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>3</v>
+      </c>
+      <c r="B19" s="34">
+        <v>42466</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="1"/>
+      <c r="A20" s="36">
+        <v>3</v>
+      </c>
+      <c r="B20" s="34">
+        <v>42466</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="35">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="36"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="22">
+        <v>42466</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="35">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="35"/>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="19"/>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
-        <v>3</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="38"/>
+      <c r="A22" s="38">
+        <v>3</v>
+      </c>
+      <c r="B22" s="37">
+        <v>42466</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11">
+        <v>5</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11">
+        <v>5</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11">
+        <v>4</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="38">
+        <v>3</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
@@ -1553,6 +1714,7 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1560,10 +1722,50 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
+++ b/Planning_Urenverdeling/Urenverdeling Week 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t xml:space="preserve">Planning van de uren </t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bitmap </t>
+  </si>
+  <si>
+    <t>Robot soepel laten rijden</t>
+  </si>
+  <si>
+    <t>60 min.</t>
   </si>
 </sst>
 </file>
@@ -774,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,12 +1073,24 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="19"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="N7" s="26">
+        <v>42466</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45">
@@ -1468,19 +1486,27 @@
       <c r="D17" s="35">
         <v>2</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
       <c r="F17" s="35">
         <v>0</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
       <c r="H17" s="19">
         <v>0</v>
       </c>
-      <c r="I17" s="36"/>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
       <c r="J17" s="19">
         <v>0</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="36">
+        <v>0</v>
+      </c>
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1488,27 +1514,35 @@
         <v>3</v>
       </c>
       <c r="B18" s="34">
-        <v>42466</v>
+        <v>42435</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="35">
         <v>0</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="36">
+        <v>0</v>
+      </c>
       <c r="F18" s="35">
-        <v>4</v>
-      </c>
-      <c r="G18" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
       <c r="H18" s="19">
         <v>0</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
       <c r="J18" s="19">
-        <v>4</v>
-      </c>
-      <c r="K18" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
+        <v>1.5</v>
+      </c>
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1519,24 +1553,32 @@
         <v>42466</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="35">
         <v>0</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
       <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="G19" s="36">
+        <v>6</v>
+      </c>
       <c r="H19" s="19">
-        <v>5</v>
-      </c>
-      <c r="I19" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
       <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="K19" s="36">
+        <v>4</v>
+      </c>
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1547,95 +1589,141 @@
         <v>42466</v>
       </c>
       <c r="C20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5</v>
+      </c>
+      <c r="I20" s="36">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="34">
+        <v>42466</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="D20" s="35">
-        <v>1</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35">
-        <v>0</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36">
-        <v>3</v>
-      </c>
-      <c r="B21" s="22">
-        <v>42466</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="D21" s="35">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="36">
+        <v>1.5</v>
+      </c>
       <c r="F21" s="35">
         <v>0</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="36">
+        <v>0</v>
+      </c>
       <c r="H21" s="19">
         <v>0</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
       <c r="J21" s="19">
         <v>0</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="36">
+        <v>0</v>
+      </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38">
-        <v>3</v>
-      </c>
-      <c r="B22" s="37">
+      <c r="A22" s="36">
+        <v>3</v>
+      </c>
+      <c r="B22" s="22">
         <v>42466</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="11">
+      <c r="C22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="35">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38">
+        <v>3</v>
+      </c>
+      <c r="B23" s="37">
+        <v>42466</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="11">
         <v>4</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11">
+      <c r="E23" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F23" s="11">
         <v>5</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11">
+      <c r="G23" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="H23" s="11">
         <v>5</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="11">
+      <c r="I23" s="12">
         <v>4</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="15"/>
+      <c r="J23" s="11">
+        <v>4</v>
+      </c>
+      <c r="K23" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1653,7 +1741,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1670,47 +1758,49 @@
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38">
-        <v>3</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="38"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="38">
+        <v>3</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1759,6 +1849,7 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1766,6 +1857,19 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
